--- a/bin/Debug/invoice-deposit.xlsx
+++ b/bin/Debug/invoice-deposit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16275" windowHeight="7995"/>
@@ -225,8 +225,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,39 +762,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -807,13 +783,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -825,15 +801,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -896,6 +863,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,6 +906,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1217,6 +1225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1251,6 +1260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1426,14 +1436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="8" width="7.5703125" style="1" customWidth="1"/>
@@ -1441,86 +1451,86 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1"/>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1534,7 +1544,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1542,9 +1552,9 @@
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1552,21 +1562,21 @@
       <c r="K9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" ht="23.25">
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1580,19 +1590,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1606,252 +1616,252 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="6" customHeight="1" thickBot="1"/>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" thickTop="1">
+    <row r="12" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+      <c r="J13" s="59"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="63"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="63"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="63"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>11</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>12</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>13</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="63"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="63"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>15</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="61"/>
       <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" ht="21" customHeight="1" thickTop="1">
-      <c r="A28" s="50" t="s">
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" spans="1:12" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="38"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19" t="s">
         <v>7</v>
@@ -1859,11 +1869,11 @@
       <c r="I28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
-    </row>
-    <row r="29" spans="1:12" ht="21" customHeight="1">
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+    </row>
+    <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
@@ -1879,12 +1889,12 @@
       <c r="I29" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-    </row>
-    <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="17"/>
@@ -1899,11 +1909,11 @@
       <c r="I30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="43"/>
-    </row>
-    <row r="31" spans="1:12" ht="21" customHeight="1" thickBot="1">
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+    </row>
+    <row r="31" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>32</v>
       </c>
@@ -1919,11 +1929,11 @@
       <c r="I31" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
-    </row>
-    <row r="32" spans="1:12" ht="21" customHeight="1" thickTop="1">
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+    </row>
+    <row r="32" spans="1:12" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>30</v>
       </c>
@@ -1933,8 +1943,8 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="17"/>
@@ -1943,35 +1953,35 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:12" ht="15">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15"/>
-    <row r="36" spans="1:12" ht="23.25">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="C36" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="28" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="27" t="s">
         <v>42</v>
       </c>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="C37" s="7" t="s">
         <v>19</v>
@@ -1994,19 +2004,19 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1">
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
         <v>33</v>
       </c>
